--- a/data/trans_bre/P44-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P44-Habitat-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.399333631677608</v>
+        <v>-4.354207728499801</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.417970250798887</v>
+        <v>-7.333561754619666</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.33470366895224</v>
+        <v>-8.568199677017843</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.5820636629318409</v>
+        <v>-0.5720894791679241</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5312049884795557</v>
+        <v>-0.5408624109899867</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2425651381302143</v>
+        <v>-0.2450732874484544</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.479606524469811</v>
+        <v>3.653906410809365</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.809062613785598</v>
+        <v>2.939554052908433</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.597732211188752</v>
+        <v>2.448074595074397</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.024503430842795</v>
+        <v>0.9958849461496977</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3893621043362143</v>
+        <v>0.3856803331714255</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09019660081432403</v>
+        <v>0.08756079876606654</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>-2.521653550328837</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-6.007709740128098</v>
+        <v>-6.007709740128092</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.09926800142637705</v>
@@ -709,7 +709,7 @@
         <v>-0.2539451959688492</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1682076593406832</v>
+        <v>-0.1682076593406831</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.677434632572992</v>
+        <v>-3.853736429993378</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.427200981969178</v>
+        <v>-6.480179773755316</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-11.04943683617026</v>
+        <v>-11.22768150409199</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3512903713552478</v>
+        <v>-0.3567927344200116</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5417435438204709</v>
+        <v>-0.5352102549280302</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2885661674744405</v>
+        <v>-0.2944356930015485</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.314817825005768</v>
+        <v>5.755924451187418</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.440090806745049</v>
+        <v>1.884726974662943</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.5747298755234844</v>
+        <v>-0.8860746277912288</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.9042421694283456</v>
+        <v>0.9023346614649786</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1995969778922171</v>
+        <v>0.2739482931008534</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.02112960017910683</v>
+        <v>-0.02825689263366891</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.22301435019336</v>
+        <v>-9.04771378203024</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.856702235939775</v>
+        <v>-9.633350723115361</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.43743707049304</v>
+        <v>-13.19876701907717</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.5472884047750143</v>
+        <v>-0.5868179387366004</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6910187339785625</v>
+        <v>-0.6790943726070334</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3673752524447076</v>
+        <v>-0.3690989348191089</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.978455446717027</v>
+        <v>2.825538556915247</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.1249234831813045</v>
+        <v>-0.1633774341987684</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.323761193838989</v>
+        <v>-1.581071581859423</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.3551775710574284</v>
+        <v>0.35531685169196</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.01000412144074344</v>
+        <v>0.006686806588104421</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.04442399360826241</v>
+        <v>-0.05823722680521635</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-10.0420797850352</v>
+        <v>-10.09763569009132</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-11.69140076460027</v>
+        <v>-11.63621371110456</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-13.25389940688792</v>
+        <v>-12.94858518789614</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6790056200269691</v>
+        <v>-0.6731637403402024</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6794952419326291</v>
+        <v>-0.6776591146032217</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2843589728258146</v>
+        <v>-0.2808612383665264</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-1.483755516203601</v>
+        <v>-1.394927699265724</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-2.944777054489312</v>
+        <v>-3.048383227036738</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-2.91433321567306</v>
+        <v>-2.660922044898054</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.1384117355037072</v>
+        <v>-0.1444764133523548</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2356080512153889</v>
+        <v>-0.2495225756831627</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.07191577090976276</v>
+        <v>-0.06751518107908509</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.265223213685456</v>
+        <v>-4.326929062285305</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.68813377661812</v>
+        <v>-6.585348052253409</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.442143998865669</v>
+        <v>-8.662309606867989</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.3863188384715708</v>
+        <v>-0.4068850721209947</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5091073050835536</v>
+        <v>-0.5057390689734269</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2242660659634012</v>
+        <v>-0.2276373590721985</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4745563194675836</v>
+        <v>0.3656813721042818</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.176955371180532</v>
+        <v>-1.998656398677975</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3.051218628527574</v>
+        <v>-3.076275634056883</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.07376240079636191</v>
+        <v>0.0398127644468779</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.2013397537051824</v>
+        <v>-0.1909535387916147</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.0901003541192576</v>
+        <v>-0.09098234357762264</v>
       </c>
     </row>
     <row r="19">
